--- a/trainingset.xlsx
+++ b/trainingset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO83"/>
+  <dimension ref="A1:AM83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>foodie</t>
+          <t>islamabad</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>islamabad</t>
+          <t>order</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,29 +456,29 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>recipe</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>burger</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>cake</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>eid</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>chicken</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>order</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>food</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>gift</t>
@@ -486,69 +486,69 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>pakistan</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>limited</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>day</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>world</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>jewelrystorage</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>faisalabad</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>musthave</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>yearendingsale</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>winter</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>style</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>online</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>collection</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>fashion</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>instores</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>collection</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>summer</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>style</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>detail</t>
-        </is>
-      </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
           <t>dress</t>
@@ -561,80 +561,70 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>beauty</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>concealer</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>makeupartist</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>concealer</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>lipstick</t>
-        </is>
-      </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>stunning</t>
+          <t>winteroutfit</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>winterfashion</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>winteroutfit</t>
+          <t>highlighter</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>winterfashion</t>
+          <t>fitness</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>fitness</t>
+          <t>workout</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>workout</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>exercise</t>
+          <t>sadiaariffitness</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>fitnessmodel</t>
+          <t>outfitideas</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>bodybuilding</t>
+          <t>classy</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>sadiaariffitness</t>
+          <t>competition</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>instagram</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>trending</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>category</t>
         </is>
@@ -647,58 +637,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C2" t="n">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>9</v>
       </c>
-      <c r="G2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>191</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>13</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>3</v>
       </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -707,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -731,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -757,13 +747,7 @@
       <c r="AL2" t="n">
         <v>0</v>
       </c>
-      <c r="AM2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -779,44 +763,44 @@
         <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>89</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
         <v>3</v>
       </c>
-      <c r="L3" t="n">
-        <v>8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
@@ -848,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -860,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -886,13 +870,7 @@
       <c r="AL3" t="n">
         <v>0</v>
       </c>
-      <c r="AM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -905,7 +883,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -914,38 +892,38 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>86</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>25</v>
+      </c>
+      <c r="I4" t="n">
         <v>8</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>204</v>
-      </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>3</v>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
@@ -956,16 +934,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -989,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -1015,13 +993,7 @@
       <c r="AL4" t="n">
         <v>0</v>
       </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -1034,10 +1006,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1049,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1061,20 +1033,20 @@
         <v>252</v>
       </c>
       <c r="K5" t="n">
+        <v>29</v>
+      </c>
+      <c r="L5" t="n">
+        <v>63</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>34</v>
       </c>
-      <c r="L5" t="n">
-        <v>7</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
@@ -1082,14 +1054,14 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>23</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
@@ -1112,13 +1084,13 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1144,13 +1116,7 @@
       <c r="AL5" t="n">
         <v>0</v>
       </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -1166,22 +1132,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>21</v>
-      </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1190,20 +1156,20 @@
         <v>42</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>49</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>20</v>
       </c>
-      <c r="L6" t="n">
-        <v>6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
@@ -1214,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1223,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1273,13 +1239,7 @@
       <c r="AL6" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -1292,7 +1252,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>14</v>
@@ -1307,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1319,20 +1279,20 @@
         <v>56</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
         <v>19</v>
       </c>
-      <c r="L7" t="n">
-        <v>4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
@@ -1340,14 +1300,14 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>2</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
@@ -1373,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1402,13 +1362,7 @@
       <c r="AL7" t="n">
         <v>0</v>
       </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -1439,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1448,40 +1402,40 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>3</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
         <v>29</v>
       </c>
-      <c r="U8" t="n">
-        <v>25</v>
-      </c>
       <c r="V8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1502,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1526,18 +1480,12 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
       </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -1553,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1565,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1577,44 +1525,44 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>2</v>
       </c>
-      <c r="L9" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>18</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>15</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>15</v>
-      </c>
-      <c r="T9" t="n">
-        <v>18</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>4</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3</v>
-      </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
@@ -1660,13 +1608,7 @@
       <c r="AL9" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -1682,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1694,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1706,20 +1648,20 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>20</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>2</v>
       </c>
-      <c r="L10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
@@ -1727,23 +1669,23 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>39</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
+        <v>12</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>19</v>
       </c>
-      <c r="T10" t="n">
-        <v>12</v>
-      </c>
-      <c r="U10" t="n">
-        <v>6</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
@@ -1789,13 +1731,7 @@
       <c r="AL10" t="n">
         <v>0</v>
       </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -1811,44 +1747,44 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>15</v>
       </c>
-      <c r="G11" t="n">
-        <v>15</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>13</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>5</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
@@ -1865,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1918,13 +1854,7 @@
       <c r="AL11" t="n">
         <v>0</v>
       </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -1937,10 +1867,10 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
         <v>9</v>
-      </c>
-      <c r="C12" t="n">
-        <v>15</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -1949,43 +1879,43 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>40</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>18</v>
       </c>
-      <c r="G12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>86</v>
-      </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>6</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>6</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1994,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2021,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -2047,13 +1977,7 @@
       <c r="AL12" t="n">
         <v>0</v>
       </c>
-      <c r="AM12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -2066,47 +1990,47 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C13" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>14</v>
       </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>83</v>
-      </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>7</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>3</v>
       </c>
-      <c r="L13" t="n">
-        <v>8</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
@@ -2126,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -2176,13 +2100,7 @@
       <c r="AL13" t="n">
         <v>0</v>
       </c>
-      <c r="AM13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -2198,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2210,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2225,11 +2143,11 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
         <v>7</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
@@ -2243,22 +2161,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>1</v>
@@ -2305,13 +2223,7 @@
       <c r="AL14" t="n">
         <v>0</v>
       </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -2342,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -2351,20 +2263,20 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>5</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
@@ -2384,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>6</v>
@@ -2396,19 +2308,19 @@
         <v>45</v>
       </c>
       <c r="Z15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
         <v>6</v>
       </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
       <c r="AC15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2434,13 +2346,7 @@
       <c r="AL15" t="n">
         <v>0</v>
       </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -2462,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2480,20 +2386,20 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>13</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>6</v>
       </c>
-      <c r="L16" t="n">
-        <v>4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
@@ -2504,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -2513,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -2525,22 +2431,22 @@
         <v>41</v>
       </c>
       <c r="Z16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
         <v>9</v>
       </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -2563,13 +2469,7 @@
       <c r="AL16" t="n">
         <v>0</v>
       </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -2600,29 +2500,29 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>12</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>2</v>
       </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
@@ -2639,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2654,19 +2554,19 @@
         <v>5</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA17" t="n">
         <v>1</v>
       </c>
       <c r="AB17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2692,13 +2592,7 @@
       <c r="AL17" t="n">
         <v>0</v>
       </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -2714,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2726,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2738,38 +2632,38 @@
         <v>126</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>15</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>19</v>
       </c>
-      <c r="L18" t="n">
-        <v>6</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>38</v>
       </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>2</v>
       </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
@@ -2821,13 +2715,7 @@
       <c r="AL18" t="n">
         <v>0</v>
       </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AM18" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -2849,13 +2737,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2867,20 +2755,20 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>3</v>
       </c>
-      <c r="L19" t="n">
-        <v>2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
@@ -2897,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2912,13 +2800,13 @@
         <v>20</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA19" t="n">
         <v>3</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -2950,13 +2838,7 @@
       <c r="AL19" t="n">
         <v>0</v>
       </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AM19" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -2978,13 +2860,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2996,20 +2878,20 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>2</v>
       </c>
-      <c r="L20" t="n">
-        <v>7</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
@@ -3029,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -3041,13 +2923,13 @@
         <v>31</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="AA20" t="n">
         <v>8</v>
       </c>
       <c r="AB20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -3056,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -3079,13 +2961,7 @@
       <c r="AL20" t="n">
         <v>0</v>
       </c>
-      <c r="AM20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AM20" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -3149,19 +3025,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>10</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>18</v>
@@ -3170,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
@@ -3179,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -3208,13 +3084,7 @@
       <c r="AL21" t="n">
         <v>0</v>
       </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AM21" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -3245,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -3254,20 +3124,20 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>15</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
@@ -3278,16 +3148,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>14</v>
       </c>
-      <c r="U22" t="n">
-        <v>22</v>
-      </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -3308,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
@@ -3337,13 +3207,7 @@
       <c r="AL22" t="n">
         <v>0</v>
       </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AM22" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -3359,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -3371,55 +3235,55 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>17</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>6</v>
+      </c>
+      <c r="U23" t="n">
         <v>4</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" t="n">
         <v>6</v>
-      </c>
-      <c r="S23" t="n">
-        <v>6</v>
-      </c>
-      <c r="T23" t="n">
-        <v>4</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>8</v>
@@ -3428,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -3437,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -3466,13 +3330,7 @@
       <c r="AL23" t="n">
         <v>0</v>
       </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="inlineStr">
+      <c r="AM23" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -3512,20 +3370,20 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>19</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
         <v>4</v>
       </c>
-      <c r="L24" t="n">
-        <v>19</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
@@ -3539,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3557,23 +3415,23 @@
         <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
       <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
         <v>2</v>
       </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
       <c r="AF24" t="n">
         <v>0</v>
       </c>
@@ -3595,13 +3453,7 @@
       <c r="AL24" t="n">
         <v>0</v>
       </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="inlineStr">
+      <c r="AM24" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -3635,25 +3487,25 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>3</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>3</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -3686,7 +3538,7 @@
         <v>3</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -3698,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -3724,13 +3576,7 @@
       <c r="AL25" t="n">
         <v>0</v>
       </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="inlineStr">
+      <c r="AM25" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -3770,19 +3616,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>3</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>2</v>
       </c>
-      <c r="M26" t="n">
-        <v>7</v>
-      </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -3797,16 +3643,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>4</v>
       </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>1</v>
@@ -3815,22 +3661,22 @@
         <v>41</v>
       </c>
       <c r="Z26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="n">
         <v>7</v>
       </c>
-      <c r="AA26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>13</v>
-      </c>
       <c r="AC26" t="n">
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
@@ -3853,13 +3699,7 @@
       <c r="AL26" t="n">
         <v>0</v>
       </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="inlineStr">
+      <c r="AM26" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -3899,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -3920,13 +3760,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
         <v>8</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -3944,22 +3784,22 @@
         <v>9</v>
       </c>
       <c r="Z27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
         <v>2</v>
       </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>5</v>
-      </c>
       <c r="AC27" t="n">
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF27" t="n">
         <v>0</v>
@@ -3982,13 +3822,7 @@
       <c r="AL27" t="n">
         <v>0</v>
       </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="inlineStr">
+      <c r="AM27" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -4031,13 +3865,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -4052,16 +3886,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -4073,22 +3907,22 @@
         <v>32</v>
       </c>
       <c r="Z28" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
       </c>
       <c r="AB28" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF28" t="n">
         <v>0</v>
@@ -4111,13 +3945,7 @@
       <c r="AL28" t="n">
         <v>0</v>
       </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="inlineStr">
+      <c r="AM28" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -4148,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -4157,14 +3985,14 @@
         <v>16</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" t="n">
         <v>3</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
@@ -4178,14 +4006,14 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
         <v>5</v>
       </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
@@ -4240,13 +4068,7 @@
       <c r="AL29" t="n">
         <v>0</v>
       </c>
-      <c r="AM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO29" t="inlineStr">
+      <c r="AM29" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -4268,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -4277,29 +4099,29 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>3</v>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
@@ -4310,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -4319,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -4343,22 +4165,22 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
         <v>2</v>
       </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
       <c r="AI30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="n">
         <v>0</v>
@@ -4369,13 +4191,7 @@
       <c r="AL30" t="n">
         <v>0</v>
       </c>
-      <c r="AM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO30" t="inlineStr">
+      <c r="AM30" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -4391,44 +4207,44 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
         <v>3</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>3</v>
       </c>
-      <c r="M31" t="n">
-        <v>10</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
@@ -4478,33 +4294,27 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG31" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AH31" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AI31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL31" t="n">
         <v>0</v>
       </c>
-      <c r="AM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO31" t="inlineStr">
+      <c r="AM31" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -4517,10 +4327,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -4532,31 +4342,31 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
         <v>35</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -4568,16 +4378,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -4607,33 +4417,27 @@
         <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG32" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="AH32" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="AI32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AL32" t="n">
         <v>0</v>
       </c>
-      <c r="AM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO32" t="inlineStr">
+      <c r="AM32" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -4646,10 +4450,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -4661,44 +4465,44 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>14</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
         <v>2</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5</v>
-      </c>
-      <c r="L33" t="n">
-        <v>14</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
@@ -4706,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -4718,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
@@ -4730,22 +4534,22 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AH33" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
         <v>0</v>
@@ -4756,13 +4560,7 @@
       <c r="AL33" t="n">
         <v>0</v>
       </c>
-      <c r="AM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO33" t="inlineStr">
+      <c r="AM33" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -4775,47 +4573,47 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>20</v>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>20</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
@@ -4826,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -4835,63 +4633,57 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
+        <v>1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>57</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>69</v>
+      </c>
+      <c r="AH34" t="n">
         <v>15</v>
       </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>57</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>69</v>
-      </c>
       <c r="AI34" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AJ34" t="n">
         <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
       </c>
-      <c r="AM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO34" t="inlineStr">
+      <c r="AM34" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -4907,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -4916,43 +4708,43 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -5014,13 +4806,7 @@
       <c r="AL35" t="n">
         <v>0</v>
       </c>
-      <c r="AM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO35" t="inlineStr">
+      <c r="AM35" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -5042,13 +4828,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>10</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -5060,11 +4846,11 @@
         <v>80</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>10</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
@@ -5072,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -5081,13 +4867,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
         <v>10</v>
       </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -5143,13 +4929,7 @@
       <c r="AL36" t="n">
         <v>0</v>
       </c>
-      <c r="AM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO36" t="inlineStr">
+      <c r="AM36" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -5165,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -5177,10 +4957,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -5189,22 +4969,22 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
+        <v>4</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
         <v>6</v>
       </c>
-      <c r="L37" t="n">
-        <v>3</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1</v>
-      </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -5213,19 +4993,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>5</v>
       </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
       <c r="V37" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="W37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -5234,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
@@ -5243,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -5272,13 +5052,7 @@
       <c r="AL37" t="n">
         <v>0</v>
       </c>
-      <c r="AM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO37" t="inlineStr">
+      <c r="AM37" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -5291,23 +5065,23 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>5</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -5318,19 +5092,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -5401,13 +5175,7 @@
       <c r="AL38" t="n">
         <v>0</v>
       </c>
-      <c r="AM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO38" t="inlineStr">
+      <c r="AM38" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -5438,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -5465,26 +5233,26 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
         <v>5</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
         <v>7</v>
       </c>
-      <c r="S39" t="n">
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
         <v>7</v>
       </c>
-      <c r="T39" t="n">
-        <v>1</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
@@ -5530,13 +5298,7 @@
       <c r="AL39" t="n">
         <v>0</v>
       </c>
-      <c r="AM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO39" t="inlineStr">
+      <c r="AM39" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -5594,11 +5356,11 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>3</v>
       </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
@@ -5609,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -5630,16 +5392,16 @@
         <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
         <v>0</v>
@@ -5659,13 +5421,7 @@
       <c r="AL40" t="n">
         <v>0</v>
       </c>
-      <c r="AM40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO40" t="inlineStr">
+      <c r="AM40" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -5705,53 +5461,53 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>3</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1</v>
-      </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
         <v>11</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
+        <v>21</v>
+      </c>
+      <c r="T41" t="n">
         <v>2</v>
       </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
+      <c r="U41" t="n">
         <v>3</v>
       </c>
-      <c r="U41" t="n">
-        <v>1</v>
-      </c>
       <c r="V41" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
         <v>2</v>
       </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0</v>
-      </c>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
@@ -5788,13 +5544,7 @@
       <c r="AL41" t="n">
         <v>0</v>
       </c>
-      <c r="AM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO41" t="inlineStr">
+      <c r="AM41" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -5810,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -5822,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -5834,16 +5584,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -5858,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -5867,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -5917,13 +5667,7 @@
       <c r="AL42" t="n">
         <v>0</v>
       </c>
-      <c r="AM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="inlineStr">
+      <c r="AM42" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -5939,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -5951,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -6046,13 +5790,7 @@
       <c r="AL43" t="n">
         <v>0</v>
       </c>
-      <c r="AM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO43" t="inlineStr">
+      <c r="AM43" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -6119,16 +5857,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -6146,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -6175,13 +5913,7 @@
       <c r="AL44" t="n">
         <v>0</v>
       </c>
-      <c r="AM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO44" t="inlineStr">
+      <c r="AM44" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -6221,44 +5953,44 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>11</v>
       </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
         <v>13</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
       </c>
       <c r="S45" t="n">
         <v>3</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>3</v>
       </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
@@ -6304,13 +6036,7 @@
       <c r="AL45" t="n">
         <v>0</v>
       </c>
-      <c r="AM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO45" t="inlineStr">
+      <c r="AM45" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -6350,20 +6076,20 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>5</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
@@ -6371,19 +6097,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="n">
         <v>3</v>
       </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -6433,13 +6159,7 @@
       <c r="AL46" t="n">
         <v>0</v>
       </c>
-      <c r="AM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO46" t="inlineStr">
+      <c r="AM46" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -6482,11 +6202,11 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
         <v>2</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
@@ -6500,23 +6220,23 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
         <v>11</v>
       </c>
-      <c r="S47" t="n">
+      <c r="U47" t="n">
+        <v>6</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
         <v>9</v>
       </c>
-      <c r="T47" t="n">
-        <v>6</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="n">
-        <v>3</v>
-      </c>
       <c r="X47" t="n">
         <v>0</v>
       </c>
@@ -6562,13 +6282,7 @@
       <c r="AL47" t="n">
         <v>0</v>
       </c>
-      <c r="AM47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO47" t="inlineStr">
+      <c r="AM47" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -6608,19 +6322,19 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -6671,33 +6385,27 @@
         <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG48" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI48" t="n">
         <v>0</v>
       </c>
       <c r="AJ48" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK48" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL48" t="n">
         <v>0</v>
       </c>
-      <c r="AM48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO48" t="inlineStr">
+      <c r="AM48" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -6740,10 +6448,10 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -6800,16 +6508,16 @@
         <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ49" t="n">
         <v>0</v>
@@ -6818,15 +6526,9 @@
         <v>0</v>
       </c>
       <c r="AL49" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -6929,10 +6631,10 @@
         <v>0</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH50" t="n">
         <v>0</v>
@@ -6944,18 +6646,12 @@
         <v>0</v>
       </c>
       <c r="AK50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO50" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="AM50" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -6995,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7007,19 +6703,19 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
         <v>2</v>
       </c>
-      <c r="R51" t="n">
-        <v>0</v>
-      </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
@@ -7028,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
@@ -7049,13 +6745,13 @@
         <v>0</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51" t="n">
         <v>0</v>
@@ -7070,21 +6766,15 @@
         <v>0</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO51" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="AM51" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -7124,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7136,19 +6826,19 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
       <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
         <v>2</v>
       </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
@@ -7157,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
@@ -7178,19 +6868,19 @@
         <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH52" t="n">
         <v>0</v>
@@ -7199,21 +6889,15 @@
         <v>0</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" t="n">
         <v>0</v>
       </c>
-      <c r="AM52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO52" t="inlineStr">
+      <c r="AM52" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -7226,10 +6910,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>4</v>
@@ -7238,23 +6922,23 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>3</v>
       </c>
-      <c r="G53" t="n">
-        <v>3</v>
-      </c>
-      <c r="H53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
         <v>4</v>
       </c>
-      <c r="I53" t="n">
-        <v>19</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
@@ -7336,13 +7020,7 @@
       <c r="AL53" t="n">
         <v>0</v>
       </c>
-      <c r="AM53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO53" t="inlineStr">
+      <c r="AM53" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -7355,7 +7033,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -7364,37 +7042,37 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
         <v>122</v>
       </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
       </c>
       <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
         <v>12</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -7465,13 +7143,7 @@
       <c r="AL54" t="n">
         <v>0</v>
       </c>
-      <c r="AM54" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO54" t="inlineStr">
+      <c r="AM54" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -7484,10 +7156,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -7511,40 +7183,40 @@
         <v>25</v>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>10</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
         <v>5</v>
       </c>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0</v>
-      </c>
       <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
         <v>3</v>
       </c>
-      <c r="S55" t="n">
-        <v>0</v>
-      </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
@@ -7594,13 +7266,7 @@
       <c r="AL55" t="n">
         <v>0</v>
       </c>
-      <c r="AM55" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO55" t="inlineStr">
+      <c r="AM55" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -7640,40 +7306,40 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
         <v>11</v>
       </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>2</v>
-      </c>
       <c r="P56" t="n">
         <v>0</v>
       </c>
       <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
         <v>25</v>
       </c>
-      <c r="R56" t="n">
-        <v>0</v>
-      </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
@@ -7694,16 +7360,16 @@
         <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE56" t="n">
         <v>0</v>
       </c>
       <c r="AF56" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG56" t="n">
         <v>0</v>
@@ -7723,13 +7389,7 @@
       <c r="AL56" t="n">
         <v>0</v>
       </c>
-      <c r="AM56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO56" t="inlineStr">
+      <c r="AM56" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -7769,31 +7429,31 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
         <v>22</v>
       </c>
-      <c r="L57" t="n">
-        <v>2</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
       <c r="P57" t="n">
         <v>0</v>
       </c>
       <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
         <v>61</v>
       </c>
-      <c r="R57" t="n">
-        <v>0</v>
-      </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
@@ -7802,7 +7462,7 @@
         <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
@@ -7826,13 +7486,13 @@
         <v>0</v>
       </c>
       <c r="AD57" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE57" t="n">
         <v>0</v>
       </c>
       <c r="AF57" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG57" t="n">
         <v>0</v>
@@ -7852,13 +7512,7 @@
       <c r="AL57" t="n">
         <v>0</v>
       </c>
-      <c r="AM57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO57" t="inlineStr">
+      <c r="AM57" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -7874,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -7886,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -7901,16 +7555,16 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -7922,19 +7576,19 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
         <v>80</v>
       </c>
-      <c r="U58" t="n">
-        <v>0</v>
-      </c>
       <c r="V58" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="W58" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X58" t="n">
         <v>1</v>
@@ -7943,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="Z58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA58" t="n">
         <v>0</v>
@@ -7952,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AC58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE58" t="n">
         <v>0</v>
@@ -7981,13 +7635,7 @@
       <c r="AL58" t="n">
         <v>0</v>
       </c>
-      <c r="AM58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO58" t="inlineStr">
+      <c r="AM58" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -8018,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -8027,14 +7675,14 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
         <v>2</v>
       </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
       <c r="N59" t="n">
         <v>0</v>
       </c>
@@ -8084,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE59" t="n">
         <v>0</v>
@@ -8110,13 +7758,7 @@
       <c r="AL59" t="n">
         <v>0</v>
       </c>
-      <c r="AM59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO59" t="inlineStr">
+      <c r="AM59" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -8174,25 +7816,25 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
         <v>9</v>
       </c>
-      <c r="R60" t="n">
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="n">
         <v>13</v>
-      </c>
-      <c r="S60" t="n">
-        <v>6</v>
-      </c>
-      <c r="T60" t="n">
-        <v>2</v>
       </c>
       <c r="U60" t="n">
         <v>2</v>
       </c>
       <c r="V60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X60" t="n">
         <v>0</v>
@@ -8239,13 +7881,7 @@
       <c r="AL60" t="n">
         <v>0</v>
       </c>
-      <c r="AM60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO60" t="inlineStr">
+      <c r="AM60" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -8258,10 +7894,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C61" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -8276,10 +7912,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -8288,11 +7924,11 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
         <v>2</v>
       </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
       <c r="N61" t="n">
         <v>0</v>
       </c>
@@ -8315,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -8368,13 +8004,7 @@
       <c r="AL61" t="n">
         <v>0</v>
       </c>
-      <c r="AM61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO61" t="inlineStr">
+      <c r="AM61" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -8387,10 +8017,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -8408,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -8426,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -8438,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>
@@ -8447,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
@@ -8497,13 +8127,7 @@
       <c r="AL62" t="n">
         <v>0</v>
       </c>
-      <c r="AM62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO62" t="inlineStr">
+      <c r="AM62" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -8543,14 +8167,14 @@
         <v>93</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
         <v>12</v>
       </c>
-      <c r="M63" t="n">
-        <v>11</v>
-      </c>
       <c r="N63" t="n">
         <v>0</v>
       </c>
@@ -8588,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="Z63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA63" t="n">
         <v>0</v>
@@ -8626,13 +8250,7 @@
       <c r="AL63" t="n">
         <v>0</v>
       </c>
-      <c r="AM63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO63" t="inlineStr">
+      <c r="AM63" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -8672,40 +8290,40 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
+        <v>2</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
         <v>5</v>
       </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
         <v>6</v>
       </c>
-      <c r="R64" t="n">
-        <v>1</v>
-      </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
@@ -8726,16 +8344,16 @@
         <v>0</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG64" t="n">
         <v>0</v>
@@ -8755,13 +8373,7 @@
       <c r="AL64" t="n">
         <v>0</v>
       </c>
-      <c r="AM64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO64" t="inlineStr">
+      <c r="AM64" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -8819,19 +8431,19 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
         <v>62</v>
       </c>
-      <c r="R65" t="n">
-        <v>0</v>
-      </c>
       <c r="S65" t="n">
         <v>0</v>
       </c>
       <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
         <v>23</v>
-      </c>
-      <c r="U65" t="n">
-        <v>0</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -8855,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
       </c>
       <c r="AE65" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AF65" t="n">
         <v>0</v>
@@ -8884,13 +8496,7 @@
       <c r="AL65" t="n">
         <v>0</v>
       </c>
-      <c r="AM65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO65" t="inlineStr">
+      <c r="AM65" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -8930,29 +8536,29 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
         <v>2</v>
       </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0</v>
-      </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
       <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
         <v>2</v>
       </c>
-      <c r="R66" t="n">
-        <v>0</v>
-      </c>
       <c r="S66" t="n">
         <v>0</v>
       </c>
@@ -9013,13 +8619,7 @@
       <c r="AL66" t="n">
         <v>0</v>
       </c>
-      <c r="AM66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO66" t="inlineStr">
+      <c r="AM66" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -9077,26 +8677,26 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
         <v>10</v>
       </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="n">
         <v>8</v>
       </c>
-      <c r="S67" t="n">
+      <c r="U67" t="n">
+        <v>24</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1</v>
+      </c>
+      <c r="W67" t="n">
         <v>8</v>
       </c>
-      <c r="T67" t="n">
-        <v>24</v>
-      </c>
-      <c r="U67" t="n">
-        <v>0</v>
-      </c>
-      <c r="V67" t="n">
-        <v>2</v>
-      </c>
-      <c r="W67" t="n">
-        <v>0</v>
-      </c>
       <c r="X67" t="n">
         <v>0</v>
       </c>
@@ -9113,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="AC67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
@@ -9142,13 +8742,7 @@
       <c r="AL67" t="n">
         <v>0</v>
       </c>
-      <c r="AM67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO67" t="inlineStr">
+      <c r="AM67" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -9164,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -9176,55 +8770,55 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
         <v>2</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>7</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
         <v>2</v>
       </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0</v>
-      </c>
-      <c r="S68" t="n">
-        <v>0</v>
-      </c>
-      <c r="T68" t="n">
-        <v>0</v>
-      </c>
-      <c r="U68" t="n">
-        <v>0</v>
-      </c>
-      <c r="V68" t="n">
-        <v>7</v>
-      </c>
       <c r="W68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X68" t="n">
         <v>18</v>
@@ -9233,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="Z68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA68" t="n">
         <v>0</v>
@@ -9242,10 +8836,10 @@
         <v>0</v>
       </c>
       <c r="AC68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE68" t="n">
         <v>0</v>
@@ -9271,13 +8865,7 @@
       <c r="AL68" t="n">
         <v>0</v>
       </c>
-      <c r="AM68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO68" t="inlineStr">
+      <c r="AM68" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -9293,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -9302,22 +8890,22 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9329,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -9400,13 +8988,7 @@
       <c r="AL69" t="n">
         <v>0</v>
       </c>
-      <c r="AM69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO69" t="inlineStr">
+      <c r="AM69" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -9419,35 +9001,35 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
         <v>20</v>
       </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
@@ -9464,22 +9046,22 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
         <v>40</v>
       </c>
-      <c r="S70" t="n">
-        <v>0</v>
-      </c>
-      <c r="T70" t="n">
+      <c r="U70" t="n">
         <v>12</v>
       </c>
-      <c r="U70" t="n">
-        <v>0</v>
-      </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
@@ -9529,13 +9111,7 @@
       <c r="AL70" t="n">
         <v>0</v>
       </c>
-      <c r="AM70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO70" t="inlineStr">
+      <c r="AM70" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -9575,20 +9151,20 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
         <v>4</v>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
       <c r="P71" t="n">
         <v>0</v>
       </c>
@@ -9602,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
         <v>4</v>
       </c>
-      <c r="U71" t="n">
-        <v>2</v>
-      </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X71" t="n">
         <v>4</v>
@@ -9620,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA71" t="n">
         <v>0</v>
@@ -9629,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="AC71" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD71" t="n">
         <v>0</v>
@@ -9658,13 +9234,7 @@
       <c r="AL71" t="n">
         <v>0</v>
       </c>
-      <c r="AM71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO71" t="inlineStr">
+      <c r="AM71" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -9704,40 +9274,40 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
         <v>3</v>
       </c>
-      <c r="L72" t="n">
-        <v>5</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1</v>
-      </c>
       <c r="P72" t="n">
         <v>0</v>
       </c>
       <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
         <v>19</v>
       </c>
-      <c r="R72" t="n">
-        <v>0</v>
-      </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
         <v>12</v>
       </c>
-      <c r="U72" t="n">
-        <v>9</v>
-      </c>
       <c r="V72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W72" t="n">
         <v>0</v>
@@ -9761,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="AD72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE72" t="n">
         <v>0</v>
@@ -9787,13 +9357,7 @@
       <c r="AL72" t="n">
         <v>0</v>
       </c>
-      <c r="AM72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO72" t="inlineStr">
+      <c r="AM72" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -9833,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -9845,19 +9409,19 @@
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
       </c>
       <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
         <v>3</v>
       </c>
-      <c r="R73" t="n">
-        <v>0</v>
-      </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T73" t="n">
         <v>0</v>
@@ -9866,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="V73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W73" t="n">
         <v>0</v>
@@ -9916,13 +9480,7 @@
       <c r="AL73" t="n">
         <v>0</v>
       </c>
-      <c r="AM73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO73" t="inlineStr">
+      <c r="AM73" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -9980,22 +9538,22 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
         <v>16</v>
       </c>
-      <c r="R74" t="n">
-        <v>0</v>
-      </c>
       <c r="S74" t="n">
         <v>0</v>
       </c>
       <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
         <v>9</v>
       </c>
-      <c r="U74" t="n">
-        <v>0</v>
-      </c>
       <c r="V74" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W74" t="n">
         <v>0</v>
@@ -10045,13 +9603,7 @@
       <c r="AL74" t="n">
         <v>0</v>
       </c>
-      <c r="AM74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO74" t="inlineStr">
+      <c r="AM74" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -10094,10 +9646,10 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -10127,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X75" t="n">
         <v>0</v>
@@ -10148,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="AD75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE75" t="n">
         <v>0</v>
@@ -10174,13 +9726,7 @@
       <c r="AL75" t="n">
         <v>0</v>
       </c>
-      <c r="AM75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO75" t="inlineStr">
+      <c r="AM75" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -10193,10 +9739,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C76" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -10205,22 +9751,22 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>6</v>
       </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>72</v>
-      </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -10238,10 +9784,10 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
@@ -10303,13 +9849,7 @@
       <c r="AL76" t="n">
         <v>0</v>
       </c>
-      <c r="AM76" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO76" t="inlineStr">
+      <c r="AM76" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -10325,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -10337,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -10349,29 +9889,29 @@
         <v>37</v>
       </c>
       <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
         <v>12</v>
       </c>
-      <c r="L77" t="n">
+      <c r="M77" t="n">
         <v>2</v>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
         <v>7</v>
       </c>
-      <c r="R77" t="n">
-        <v>0</v>
-      </c>
       <c r="S77" t="n">
         <v>0</v>
       </c>
@@ -10385,17 +9925,17 @@
         <v>0</v>
       </c>
       <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z77" t="n">
         <v>3</v>
       </c>
-      <c r="X77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>0</v>
-      </c>
       <c r="AA77" t="n">
         <v>0</v>
       </c>
@@ -10432,13 +9972,7 @@
       <c r="AL77" t="n">
         <v>0</v>
       </c>
-      <c r="AM77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO77" t="inlineStr">
+      <c r="AM77" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -10454,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -10466,10 +10000,10 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -10478,20 +10012,20 @@
         <v>114</v>
       </c>
       <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>18</v>
+      </c>
+      <c r="M78" t="n">
+        <v>7</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="n">
         <v>11</v>
       </c>
-      <c r="L78" t="n">
-        <v>7</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1</v>
-      </c>
       <c r="P78" t="n">
         <v>0</v>
       </c>
@@ -10514,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="W78" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X78" t="n">
         <v>0</v>
@@ -10561,13 +10095,7 @@
       <c r="AL78" t="n">
         <v>0</v>
       </c>
-      <c r="AM78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO78" t="inlineStr">
+      <c r="AM78" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -10583,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
         <v>3</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -10607,43 +10135,43 @@
         <v>29</v>
       </c>
       <c r="K79" t="n">
+        <v>28</v>
+      </c>
+      <c r="L79" t="n">
+        <v>7</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
         <v>10</v>
       </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="n">
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
         <v>24</v>
       </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
+      <c r="R79" t="n">
         <v>18</v>
       </c>
-      <c r="R79" t="n">
+      <c r="S79" t="n">
+        <v>28</v>
+      </c>
+      <c r="T79" t="n">
         <v>83</v>
       </c>
-      <c r="S79" t="n">
-        <v>0</v>
-      </c>
-      <c r="T79" t="n">
+      <c r="U79" t="n">
         <v>18</v>
       </c>
-      <c r="U79" t="n">
-        <v>0</v>
-      </c>
       <c r="V79" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="W79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X79" t="n">
         <v>28</v>
@@ -10652,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="Z79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA79" t="n">
         <v>0</v>
@@ -10690,13 +10218,7 @@
       <c r="AL79" t="n">
         <v>0</v>
       </c>
-      <c r="AM79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO79" t="inlineStr">
+      <c r="AM79" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -10736,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -10745,35 +10267,35 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
       </c>
       <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
         <v>2</v>
       </c>
-      <c r="Q80" t="n">
-        <v>0</v>
-      </c>
-      <c r="R80" t="n">
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
         <v>2</v>
       </c>
-      <c r="S80" t="n">
-        <v>2</v>
-      </c>
-      <c r="T80" t="n">
-        <v>4</v>
-      </c>
-      <c r="U80" t="n">
-        <v>0</v>
-      </c>
-      <c r="V80" t="n">
-        <v>0</v>
-      </c>
-      <c r="W80" t="n">
-        <v>0</v>
-      </c>
       <c r="X80" t="n">
         <v>0</v>
       </c>
@@ -10819,13 +10341,7 @@
       <c r="AL80" t="n">
         <v>0</v>
       </c>
-      <c r="AM80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO80" t="inlineStr">
+      <c r="AM80" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -10865,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -10877,32 +10393,32 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
       </c>
       <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
         <v>12</v>
       </c>
-      <c r="R81" t="n">
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="n">
         <v>21</v>
       </c>
-      <c r="S81" t="n">
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>1</v>
+      </c>
+      <c r="W81" t="n">
         <v>21</v>
       </c>
-      <c r="T81" t="n">
-        <v>4</v>
-      </c>
-      <c r="U81" t="n">
-        <v>0</v>
-      </c>
-      <c r="V81" t="n">
-        <v>4</v>
-      </c>
-      <c r="W81" t="n">
-        <v>1</v>
-      </c>
       <c r="X81" t="n">
         <v>1</v>
       </c>
@@ -10948,13 +10464,7 @@
       <c r="AL81" t="n">
         <v>0</v>
       </c>
-      <c r="AM81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO81" t="inlineStr">
+      <c r="AM81" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -10967,47 +10477,47 @@
         </is>
       </c>
       <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>11</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
         <v>8</v>
       </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>4</v>
-      </c>
-      <c r="G82" t="n">
-        <v>11</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>53</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
         <v>2</v>
       </c>
-      <c r="L82" t="n">
-        <v>3</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
       <c r="P82" t="n">
         <v>0</v>
       </c>
@@ -11077,13 +10587,7 @@
       <c r="AL82" t="n">
         <v>0</v>
       </c>
-      <c r="AM82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO82" t="inlineStr">
+      <c r="AM82" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -11099,20 +10603,20 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
         <v>4</v>
       </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="n">
-        <v>9</v>
-      </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
@@ -11123,26 +10627,26 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
         <v>2</v>
       </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>3</v>
-      </c>
-      <c r="N83" t="n">
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
         <v>5</v>
       </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0</v>
-      </c>
       <c r="R83" t="n">
         <v>0</v>
       </c>
@@ -11206,13 +10710,7 @@
       <c r="AL83" t="n">
         <v>0</v>
       </c>
-      <c r="AM83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO83" t="inlineStr">
+      <c r="AM83" t="inlineStr">
         <is>
           <t>food</t>
         </is>

--- a/trainingset.xlsx
+++ b/trainingset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM83"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>chicken</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>islamabad</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>burger</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>islamabadfoodblog</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>recipe</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>burger</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>foodie</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>biryani</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>cake</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>gift</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>pakistan</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>onlineshopping</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>eid</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>chicken</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gift</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>pakistan</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>box</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>limited</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>jewelrystorage</t>
-        </is>
-      </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>faisalabad</t>
+          <t>customized</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -526,19 +526,19 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>instores</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>style</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>online</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>collection</t>
-        </is>
-      </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
           <t>fashion</t>
@@ -546,12 +546,12 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>instores</t>
+          <t>elegance</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>dress</t>
+          <t>adorned</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
@@ -561,70 +561,75 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>makeupartist</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>skin</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>beauty</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>concealer</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>makeupartist</t>
-        </is>
-      </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>stunning</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>lash</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>winteroutfit</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>winterfashion</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>highlighter</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>fitness</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>workout</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>exercise</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>sadiaariffitness</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>outfitideas</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>classy</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>competition</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>category</t>
         </is>
@@ -637,28 +642,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
         <v>86</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>12</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -667,19 +672,19 @@
         <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -688,13 +693,13 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -747,7 +752,10 @@
       <c r="AL2" t="n">
         <v>0</v>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -760,28 +768,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>19</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>89</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -790,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -832,16 +840,16 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -870,7 +878,10 @@
       <c r="AL3" t="n">
         <v>0</v>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -883,7 +894,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -892,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>54</v>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="H4" t="n">
-        <v>25</v>
-      </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -913,35 +924,35 @@
         <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>3</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -964,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -993,7 +1004,10 @@
       <c r="AL4" t="n">
         <v>0</v>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -1006,17 +1020,17 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -1024,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1036,19 +1050,19 @@
         <v>29</v>
       </c>
       <c r="L5" t="n">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O5" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -1057,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="T5" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1116,7 +1130,10 @@
       <c r="AL5" t="n">
         <v>0</v>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -1132,25 +1149,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>42</v>
@@ -1159,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1195,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1210,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -1239,7 +1256,10 @@
       <c r="AL6" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -1252,7 +1272,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>14</v>
@@ -1261,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1270,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1282,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1303,20 +1323,20 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>2</v>
       </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
@@ -1336,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -1362,7 +1382,10 @@
       <c r="AL7" t="n">
         <v>0</v>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -1393,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1405,19 +1428,19 @@
         <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1426,19 +1449,19 @@
         <v>3</v>
       </c>
       <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>8</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" t="n">
-        <v>29</v>
       </c>
       <c r="V8" t="n">
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1456,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1480,12 +1503,15 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -1501,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1516,56 +1542,56 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>15</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>6</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>15</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>2</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>18</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>15</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
@@ -1579,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1608,7 +1634,10 @@
       <c r="AL9" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -1624,14 +1653,14 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>6</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
@@ -1639,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1651,41 +1680,41 @@
         <v>20</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>39</v>
+      </c>
+      <c r="T10" t="n">
+        <v>19</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>2</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>39</v>
-      </c>
-      <c r="U10" t="n">
-        <v>12</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>19</v>
-      </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
@@ -1702,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1731,7 +1760,10 @@
       <c r="AL10" t="n">
         <v>0</v>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -1744,28 +1776,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
         <v>15</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1777,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1854,7 +1886,10 @@
       <c r="AL11" t="n">
         <v>0</v>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -1867,28 +1902,28 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>18</v>
+      </c>
+      <c r="C12" t="n">
         <v>15</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" t="n">
         <v>9</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
         <v>2</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>40</v>
-      </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1897,7 +1932,7 @@
         <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>6</v>
@@ -1906,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1977,7 +2012,10 @@
       <c r="AL12" t="n">
         <v>0</v>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -1990,28 +2028,28 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>14</v>
+      </c>
+      <c r="C13" t="n">
         <v>38</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
         <v>8</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2020,16 +2058,16 @@
         <v>7</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -2071,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -2100,7 +2138,10 @@
       <c r="AL13" t="n">
         <v>0</v>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -2116,14 +2157,14 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>2</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
@@ -2143,10 +2184,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2167,16 +2208,16 @@
         <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
         <v>1</v>
@@ -2194,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -2223,7 +2264,10 @@
       <c r="AL14" t="n">
         <v>0</v>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -2254,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -2269,16 +2313,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -2302,25 +2346,25 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>45</v>
       </c>
       <c r="Z15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA15" t="n">
         <v>5</v>
       </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
       <c r="AB15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2346,7 +2390,10 @@
       <c r="AL15" t="n">
         <v>0</v>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -2368,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2389,16 +2436,16 @@
         <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2410,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>9</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>5</v>
@@ -2425,28 +2472,28 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>41</v>
       </c>
       <c r="Z16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
         <v>6</v>
       </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>9</v>
-      </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -2469,7 +2516,10 @@
       <c r="AL16" t="n">
         <v>0</v>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -2512,16 +2562,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2554,22 +2604,22 @@
         <v>5</v>
       </c>
       <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB17" t="n">
         <v>8</v>
       </c>
-      <c r="AA17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -2592,7 +2642,10 @@
       <c r="AL17" t="n">
         <v>0</v>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -2608,14 +2661,14 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
         <v>13</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
@@ -2623,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2635,34 +2688,34 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="T18" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2671,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2715,7 +2768,10 @@
       <c r="AL18" t="n">
         <v>0</v>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -2743,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2758,16 +2814,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2794,28 +2850,28 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>20</v>
       </c>
       <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB19" t="n">
         <v>16</v>
       </c>
-      <c r="AA19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -2838,7 +2894,10 @@
       <c r="AL19" t="n">
         <v>0</v>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -2860,19 +2919,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2881,16 +2940,16 @@
         <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2923,22 +2982,22 @@
         <v>31</v>
       </c>
       <c r="Z20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB20" t="n">
         <v>39</v>
       </c>
-      <c r="AA20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1</v>
-      </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -2961,7 +3020,10 @@
       <c r="AL20" t="n">
         <v>0</v>
       </c>
-      <c r="AM20" t="inlineStr">
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -3025,43 +3087,43 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>10</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X21" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
       </c>
       <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
         <v>2</v>
       </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
@@ -3084,7 +3146,10 @@
       <c r="AL21" t="n">
         <v>0</v>
       </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -3115,32 +3180,32 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>15</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>14</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>15</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
@@ -3148,14 +3213,14 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>2</v>
       </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>14</v>
-      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
@@ -3178,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
@@ -3207,7 +3272,10 @@
       <c r="AL22" t="n">
         <v>0</v>
       </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -3223,14 +3291,14 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>4</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -3238,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -3250,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
@@ -3259,10 +3327,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -3271,40 +3339,40 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T23" t="n">
         <v>6</v>
       </c>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
       </c>
       <c r="W23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
@@ -3330,7 +3398,10 @@
       <c r="AL23" t="n">
         <v>0</v>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -3373,16 +3444,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M24" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -3400,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3415,22 +3486,22 @@
         <v>10</v>
       </c>
       <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
         <v>11</v>
       </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
@@ -3453,7 +3524,10 @@
       <c r="AL24" t="n">
         <v>0</v>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -3496,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
@@ -3505,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -3538,16 +3612,16 @@
         <v>3</v>
       </c>
       <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
         <v>23</v>
       </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -3576,7 +3650,10 @@
       <c r="AL25" t="n">
         <v>0</v>
       </c>
-      <c r="AM25" t="inlineStr">
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -3619,16 +3696,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
         <v>3</v>
       </c>
-      <c r="M26" t="n">
-        <v>2</v>
-      </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -3646,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3655,28 +3732,28 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>41</v>
       </c>
       <c r="Z26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB26" t="n">
         <v>16</v>
       </c>
-      <c r="AA26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>7</v>
-      </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
@@ -3699,7 +3776,10 @@
       <c r="AL26" t="n">
         <v>0</v>
       </c>
-      <c r="AM26" t="inlineStr">
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -3748,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -3763,10 +3843,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -3784,14 +3864,14 @@
         <v>9</v>
       </c>
       <c r="Z27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
         <v>16</v>
       </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>2</v>
-      </c>
       <c r="AC27" t="n">
         <v>0</v>
       </c>
@@ -3799,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AF27" t="n">
         <v>0</v>
@@ -3822,7 +3902,10 @@
       <c r="AL27" t="n">
         <v>0</v>
       </c>
-      <c r="AM27" t="inlineStr">
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -3865,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3886,13 +3969,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>6</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>3</v>
@@ -3907,22 +3990,22 @@
         <v>32</v>
       </c>
       <c r="Z28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB28" t="n">
         <v>80</v>
       </c>
-      <c r="AA28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB28" t="n">
+      <c r="AC28" t="n">
         <v>3</v>
       </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
       <c r="AD28" t="n">
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
         <v>0</v>
@@ -3945,7 +4028,10 @@
       <c r="AL28" t="n">
         <v>0</v>
       </c>
-      <c r="AM28" t="inlineStr">
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -3976,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3988,19 +4074,19 @@
         <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -4009,10 +4095,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -4068,7 +4154,10 @@
       <c r="AL29" t="n">
         <v>0</v>
       </c>
-      <c r="AM29" t="inlineStr">
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -4090,98 +4179,98 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
         <v>2</v>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>3</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ30" t="n">
         <v>0</v>
       </c>
@@ -4191,7 +4280,10 @@
       <c r="AL30" t="n">
         <v>0</v>
       </c>
-      <c r="AM30" t="inlineStr">
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -4207,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4234,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
@@ -4243,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -4294,17 +4386,17 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
         <v>6</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AH31" t="n">
         <v>19</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AI31" t="n">
         <v>7</v>
       </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ31" t="n">
         <v>0</v>
       </c>
@@ -4314,7 +4406,10 @@
       <c r="AL31" t="n">
         <v>0</v>
       </c>
-      <c r="AM31" t="inlineStr">
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -4327,16 +4422,16 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>3</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>20</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -4357,16 +4452,16 @@
         <v>37</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M32" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -4378,14 +4473,14 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>6</v>
       </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
@@ -4417,17 +4512,17 @@
         <v>0</v>
       </c>
       <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
         <v>9</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AH32" t="n">
         <v>38</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AI32" t="n">
         <v>4</v>
       </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ32" t="n">
         <v>0</v>
       </c>
@@ -4437,7 +4532,10 @@
       <c r="AL32" t="n">
         <v>0</v>
       </c>
-      <c r="AM32" t="inlineStr">
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -4450,17 +4548,17 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
         <v>4</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
         <v>20</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
@@ -4480,16 +4578,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M33" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -4501,14 +4599,14 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>2</v>
       </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
@@ -4522,13 +4620,13 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
@@ -4540,17 +4638,17 @@
         <v>0</v>
       </c>
       <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
         <v>13</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AH33" t="n">
         <v>3</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AI33" t="n">
         <v>7</v>
       </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ33" t="n">
         <v>0</v>
       </c>
@@ -4560,7 +4658,10 @@
       <c r="AL33" t="n">
         <v>0</v>
       </c>
-      <c r="AM33" t="inlineStr">
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -4573,65 +4674,65 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
         <v>20</v>
       </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>4</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>15</v>
       </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
       <c r="V34" t="n">
         <v>1</v>
       </c>
@@ -4663,17 +4764,17 @@
         <v>0</v>
       </c>
       <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
         <v>57</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AH34" t="n">
         <v>69</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AI34" t="n">
         <v>15</v>
       </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ34" t="n">
         <v>0</v>
       </c>
@@ -4683,7 +4784,10 @@
       <c r="AL34" t="n">
         <v>0</v>
       </c>
-      <c r="AM34" t="inlineStr">
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -4699,16 +4803,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>48</v>
+      </c>
+      <c r="E35" t="n">
         <v>5</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -4726,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
@@ -4735,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -4777,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -4806,7 +4910,10 @@
       <c r="AL35" t="n">
         <v>0</v>
       </c>
-      <c r="AM35" t="inlineStr">
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -4834,13 +4941,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>10</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>80</v>
@@ -4849,22 +4956,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
         <v>10</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O36" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -4873,10 +4980,10 @@
         <v>10</v>
       </c>
       <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
         <v>10</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>10</v>
@@ -4929,7 +5036,10 @@
       <c r="AL36" t="n">
         <v>0</v>
       </c>
-      <c r="AM36" t="inlineStr">
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -4945,13 +5055,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
         <v>10</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -4972,40 +5082,40 @@
         <v>4</v>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
+        <v>6</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>3</v>
       </c>
-      <c r="N37" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" t="n">
-        <v>6</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>8</v>
       </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
       <c r="V37" t="n">
         <v>1</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -5014,19 +5124,19 @@
         <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE37" t="n">
         <v>0</v>
@@ -5052,7 +5162,10 @@
       <c r="AL37" t="n">
         <v>0</v>
       </c>
-      <c r="AM37" t="inlineStr">
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -5065,10 +5178,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -5080,14 +5193,14 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>5</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
@@ -5095,16 +5208,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -5175,7 +5288,10 @@
       <c r="AL38" t="n">
         <v>0</v>
       </c>
-      <c r="AM38" t="inlineStr">
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -5239,19 +5355,19 @@
         <v>5</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T39" t="n">
         <v>7</v>
       </c>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -5298,7 +5414,10 @@
       <c r="AL39" t="n">
         <v>0</v>
       </c>
-      <c r="AM39" t="inlineStr">
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -5392,16 +5511,16 @@
         <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
         <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG40" t="n">
         <v>0</v>
@@ -5421,7 +5540,10 @@
       <c r="AL40" t="n">
         <v>0</v>
       </c>
-      <c r="AM40" t="inlineStr">
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -5464,16 +5586,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -5485,13 +5607,13 @@
         <v>11</v>
       </c>
       <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>21</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2</v>
-      </c>
-      <c r="U41" t="n">
-        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>30</v>
@@ -5506,16 +5628,16 @@
         <v>0</v>
       </c>
       <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
         <v>2</v>
       </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -5544,7 +5666,10 @@
       <c r="AL41" t="n">
         <v>0</v>
       </c>
-      <c r="AM41" t="inlineStr">
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -5560,13 +5685,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
         <v>3</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -5587,13 +5712,13 @@
         <v>16</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -5608,13 +5733,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -5632,14 +5757,14 @@
         <v>0</v>
       </c>
       <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
         <v>3</v>
       </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
       <c r="AD42" t="n">
         <v>0</v>
       </c>
@@ -5667,7 +5792,10 @@
       <c r="AL42" t="n">
         <v>0</v>
       </c>
-      <c r="AM42" t="inlineStr">
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -5683,13 +5811,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -5761,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -5790,7 +5918,10 @@
       <c r="AL43" t="n">
         <v>0</v>
       </c>
-      <c r="AM43" t="inlineStr">
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -5860,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -5887,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE44" t="n">
         <v>0</v>
@@ -5913,7 +6044,10 @@
       <c r="AL44" t="n">
         <v>0</v>
       </c>
-      <c r="AM44" t="inlineStr">
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -5959,13 +6093,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -5977,19 +6111,19 @@
         <v>13</v>
       </c>
       <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="n">
         <v>3</v>
       </c>
-      <c r="T45" t="n">
-        <v>4</v>
-      </c>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -6007,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -6036,7 +6170,10 @@
       <c r="AL45" t="n">
         <v>0</v>
       </c>
-      <c r="AM45" t="inlineStr">
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -6082,13 +6219,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -6100,13 +6237,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -6159,7 +6296,10 @@
       <c r="AL46" t="n">
         <v>0</v>
       </c>
-      <c r="AM46" t="inlineStr">
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -6202,10 +6342,10 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -6223,19 +6363,19 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T47" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U47" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
@@ -6282,7 +6422,10 @@
       <c r="AL47" t="n">
         <v>0</v>
       </c>
-      <c r="AM47" t="inlineStr">
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -6325,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
@@ -6334,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -6385,14 +6528,14 @@
         <v>0</v>
       </c>
       <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
         <v>28</v>
       </c>
-      <c r="AG48" t="n">
+      <c r="AH48" t="n">
         <v>5</v>
       </c>
-      <c r="AH48" t="n">
-        <v>0</v>
-      </c>
       <c r="AI48" t="n">
         <v>0</v>
       </c>
@@ -6405,7 +6548,10 @@
       <c r="AL48" t="n">
         <v>0</v>
       </c>
-      <c r="AM48" t="inlineStr">
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -6448,10 +6594,10 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -6508,27 +6654,30 @@
         <v>0</v>
       </c>
       <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
         <v>5</v>
       </c>
-      <c r="AG49" t="n">
+      <c r="AH49" t="n">
         <v>2</v>
       </c>
-      <c r="AH49" t="n">
-        <v>0</v>
-      </c>
       <c r="AI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="n">
         <v>3</v>
       </c>
-      <c r="AJ49" t="n">
-        <v>0</v>
-      </c>
       <c r="AK49" t="n">
         <v>0</v>
       </c>
       <c r="AL49" t="n">
         <v>0</v>
       </c>
-      <c r="AM49" t="inlineStr">
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -6631,10 +6780,10 @@
         <v>0</v>
       </c>
       <c r="AF50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH50" t="n">
         <v>0</v>
@@ -6649,9 +6798,12 @@
         <v>0</v>
       </c>
       <c r="AL50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN50" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -6697,13 +6849,13 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -6715,13 +6867,13 @@
         <v>2</v>
       </c>
       <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
         <v>2</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0</v>
       </c>
       <c r="V51" t="n">
         <v>6</v>
@@ -6745,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="AC51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -6754,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG51" t="n">
         <v>0</v>
@@ -6766,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK51" t="n">
         <v>1</v>
@@ -6774,7 +6926,10 @@
       <c r="AL51" t="n">
         <v>1</v>
       </c>
-      <c r="AM51" t="inlineStr">
+      <c r="AM51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN51" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -6820,13 +6975,13 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -6838,13 +6993,13 @@
         <v>2</v>
       </c>
       <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
         <v>2</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
       </c>
       <c r="V52" t="n">
         <v>6</v>
@@ -6868,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -6880,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH52" t="n">
         <v>0</v>
@@ -6889,15 +7044,18 @@
         <v>0</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK52" t="n">
         <v>1</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM52" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -6910,28 +7068,28 @@
         </is>
       </c>
       <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="n">
         <v>10</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
         <v>3</v>
       </c>
-      <c r="D53" t="n">
+      <c r="F53" t="n">
         <v>4</v>
       </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -7020,7 +7178,10 @@
       <c r="AL53" t="n">
         <v>0</v>
       </c>
-      <c r="AM53" t="inlineStr">
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -7042,20 +7203,20 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>122</v>
       </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
       <c r="J54" t="n">
         <v>0</v>
       </c>
@@ -7066,19 +7227,19 @@
         <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7143,7 +7304,10 @@
       <c r="AL54" t="n">
         <v>0</v>
       </c>
-      <c r="AM54" t="inlineStr">
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -7156,10 +7320,10 @@
         </is>
       </c>
       <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
         <v>2</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -7186,22 +7350,22 @@
         <v>17</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M55" t="n">
+        <v>10</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3</v>
+      </c>
+      <c r="O55" t="n">
         <v>5</v>
       </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>10</v>
-      </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7210,11 +7374,11 @@
         <v>3</v>
       </c>
       <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
         <v>3</v>
       </c>
-      <c r="U55" t="n">
-        <v>0</v>
-      </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
@@ -7266,7 +7430,10 @@
       <c r="AL55" t="n">
         <v>0</v>
       </c>
-      <c r="AM55" t="inlineStr">
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -7312,13 +7479,13 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -7330,22 +7497,22 @@
         <v>25</v>
       </c>
       <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
         <v>22</v>
-      </c>
-      <c r="T56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1</v>
       </c>
       <c r="V56" t="n">
         <v>26</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
         <v>0</v>
@@ -7360,10 +7527,10 @@
         <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE56" t="n">
         <v>0</v>
@@ -7389,7 +7556,10 @@
       <c r="AL56" t="n">
         <v>0</v>
       </c>
-      <c r="AM56" t="inlineStr">
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -7432,16 +7602,16 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -7453,13 +7623,13 @@
         <v>61</v>
       </c>
       <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
         <v>32</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0</v>
       </c>
       <c r="V57" t="n">
         <v>51</v>
@@ -7468,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y57" t="n">
         <v>0</v>
@@ -7483,10 +7653,10 @@
         <v>0</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD57" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE57" t="n">
         <v>0</v>
@@ -7512,7 +7682,10 @@
       <c r="AL57" t="n">
         <v>0</v>
       </c>
-      <c r="AM57" t="inlineStr">
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -7528,14 +7701,14 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
         <v>5</v>
       </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
@@ -7555,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -7564,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -7576,40 +7749,40 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
         <v>8</v>
       </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>80</v>
-      </c>
       <c r="V58" t="n">
         <v>1</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X58" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Y58" t="n">
         <v>0</v>
       </c>
       <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
         <v>4</v>
       </c>
-      <c r="AA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE58" t="n">
         <v>0</v>
@@ -7635,7 +7808,10 @@
       <c r="AL58" t="n">
         <v>0</v>
       </c>
-      <c r="AM58" t="inlineStr">
+      <c r="AM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -7666,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -7678,20 +7854,20 @@
         <v>3</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
         <v>2</v>
       </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
       <c r="Q59" t="n">
         <v>0</v>
       </c>
@@ -7723,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB59" t="n">
         <v>0</v>
@@ -7758,7 +7934,10 @@
       <c r="AL59" t="n">
         <v>0</v>
       </c>
-      <c r="AM59" t="inlineStr">
+      <c r="AM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN59" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -7822,19 +8001,19 @@
         <v>9</v>
       </c>
       <c r="S60" t="n">
+        <v>13</v>
+      </c>
+      <c r="T60" t="n">
+        <v>6</v>
+      </c>
+      <c r="U60" t="n">
         <v>4</v>
       </c>
-      <c r="T60" t="n">
-        <v>13</v>
-      </c>
-      <c r="U60" t="n">
-        <v>2</v>
-      </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X60" t="n">
         <v>0</v>
@@ -7881,7 +8060,10 @@
       <c r="AL60" t="n">
         <v>0</v>
       </c>
-      <c r="AM60" t="inlineStr">
+      <c r="AM60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN60" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -7894,10 +8076,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -7912,32 +8094,32 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
         <v>3</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
       <c r="Q61" t="n">
         <v>0</v>
       </c>
@@ -7954,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
@@ -8004,7 +8186,10 @@
       <c r="AL61" t="n">
         <v>0</v>
       </c>
-      <c r="AM61" t="inlineStr">
+      <c r="AM61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN61" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -8017,10 +8202,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -8032,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -8050,13 +8235,13 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -8068,14 +8253,14 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
         <v>4</v>
       </c>
-      <c r="T62" t="n">
-        <v>0</v>
-      </c>
-      <c r="U62" t="n">
-        <v>0</v>
-      </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
@@ -8127,7 +8312,10 @@
       <c r="AL62" t="n">
         <v>0</v>
       </c>
-      <c r="AM62" t="inlineStr">
+      <c r="AM62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN62" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -8170,16 +8358,16 @@
         <v>9</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M63" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -8212,13 +8400,13 @@
         <v>0</v>
       </c>
       <c r="Z63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA63" t="n">
         <v>0</v>
       </c>
       <c r="AB63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63" t="n">
         <v>0</v>
@@ -8250,7 +8438,10 @@
       <c r="AL63" t="n">
         <v>0</v>
       </c>
-      <c r="AM63" t="inlineStr">
+      <c r="AM63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN63" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -8296,13 +8487,13 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -8314,13 +8505,13 @@
         <v>6</v>
       </c>
       <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
         <v>2</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
       </c>
       <c r="V64" t="n">
         <v>6</v>
@@ -8329,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y64" t="n">
         <v>0</v>
@@ -8344,16 +8535,16 @@
         <v>0</v>
       </c>
       <c r="AC64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64" t="n">
         <v>0</v>
       </c>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG64" t="n">
         <v>0</v>
@@ -8373,7 +8564,10 @@
       <c r="AL64" t="n">
         <v>0</v>
       </c>
-      <c r="AM64" t="inlineStr">
+      <c r="AM64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN64" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -8443,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -8452,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y65" t="n">
         <v>0</v>
@@ -8467,17 +8661,17 @@
         <v>0</v>
       </c>
       <c r="AC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="n">
         <v>8</v>
       </c>
-      <c r="AD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>0</v>
-      </c>
       <c r="AG65" t="n">
         <v>0</v>
       </c>
@@ -8496,7 +8690,10 @@
       <c r="AL65" t="n">
         <v>0</v>
       </c>
-      <c r="AM65" t="inlineStr">
+      <c r="AM65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN65" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -8542,13 +8739,13 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -8619,7 +8816,10 @@
       <c r="AL66" t="n">
         <v>0</v>
       </c>
-      <c r="AM66" t="inlineStr">
+      <c r="AM66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN66" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -8683,19 +8883,19 @@
         <v>10</v>
       </c>
       <c r="S67" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T67" t="n">
         <v>8</v>
       </c>
       <c r="U67" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="V67" t="n">
         <v>1</v>
       </c>
       <c r="W67" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X67" t="n">
         <v>0</v>
@@ -8713,10 +8913,10 @@
         <v>0</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE67" t="n">
         <v>0</v>
@@ -8742,7 +8942,10 @@
       <c r="AL67" t="n">
         <v>0</v>
       </c>
-      <c r="AM67" t="inlineStr">
+      <c r="AM67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN67" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -8758,14 +8961,14 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
         <v>2</v>
       </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
@@ -8785,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -8806,40 +9009,40 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
         <v>7</v>
-      </c>
-      <c r="T68" t="n">
-        <v>0</v>
-      </c>
-      <c r="U68" t="n">
-        <v>0</v>
       </c>
       <c r="V68" t="n">
         <v>2</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X68" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Y68" t="n">
         <v>0</v>
       </c>
       <c r="Z68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA68" t="n">
         <v>0</v>
       </c>
       <c r="AB68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC68" t="n">
         <v>0</v>
       </c>
       <c r="AD68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE68" t="n">
         <v>0</v>
@@ -8865,7 +9068,10 @@
       <c r="AL68" t="n">
         <v>0</v>
       </c>
-      <c r="AM68" t="inlineStr">
+      <c r="AM68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN68" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -8878,16 +9084,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -8896,32 +9102,32 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
         <v>2</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
-        <v>1</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
       <c r="Q69" t="n">
         <v>0</v>
       </c>
@@ -8988,7 +9194,10 @@
       <c r="AL69" t="n">
         <v>0</v>
       </c>
-      <c r="AM69" t="inlineStr">
+      <c r="AM69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN69" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -9001,10 +9210,10 @@
         </is>
       </c>
       <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
         <v>20</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -9037,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -9052,13 +9261,13 @@
         <v>1</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="T70" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="V70" t="n">
         <v>20</v>
@@ -9067,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y70" t="n">
         <v>0</v>
@@ -9111,7 +9320,10 @@
       <c r="AL70" t="n">
         <v>0</v>
       </c>
-      <c r="AM70" t="inlineStr">
+      <c r="AM70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN70" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -9154,16 +9366,16 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -9181,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -9190,25 +9402,25 @@
         <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y71" t="n">
         <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA71" t="n">
         <v>0</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD71" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE71" t="n">
         <v>0</v>
@@ -9234,7 +9446,10 @@
       <c r="AL71" t="n">
         <v>0</v>
       </c>
-      <c r="AM71" t="inlineStr">
+      <c r="AM71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN71" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -9277,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -9298,13 +9513,13 @@
         <v>19</v>
       </c>
       <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
         <v>3</v>
-      </c>
-      <c r="T72" t="n">
-        <v>0</v>
-      </c>
-      <c r="U72" t="n">
-        <v>12</v>
       </c>
       <c r="V72" t="n">
         <v>2</v>
@@ -9313,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y72" t="n">
         <v>0</v>
@@ -9328,13 +9543,13 @@
         <v>0</v>
       </c>
       <c r="AC72" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD72" t="n">
         <v>0</v>
       </c>
       <c r="AE72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF72" t="n">
         <v>0</v>
@@ -9357,7 +9572,10 @@
       <c r="AL72" t="n">
         <v>0</v>
       </c>
-      <c r="AM72" t="inlineStr">
+      <c r="AM72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN72" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -9403,13 +9621,13 @@
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -9421,14 +9639,14 @@
         <v>3</v>
       </c>
       <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
         <v>2</v>
       </c>
-      <c r="T73" t="n">
-        <v>0</v>
-      </c>
-      <c r="U73" t="n">
-        <v>0</v>
-      </c>
       <c r="V73" t="n">
         <v>0</v>
       </c>
@@ -9451,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD73" t="n">
         <v>0</v>
@@ -9480,7 +9698,10 @@
       <c r="AL73" t="n">
         <v>0</v>
       </c>
-      <c r="AM73" t="inlineStr">
+      <c r="AM73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN73" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -9550,13 +9771,13 @@
         <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V74" t="n">
         <v>9</v>
       </c>
       <c r="W74" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X74" t="n">
         <v>0</v>
@@ -9603,7 +9824,10 @@
       <c r="AL74" t="n">
         <v>0</v>
       </c>
-      <c r="AM74" t="inlineStr">
+      <c r="AM74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN74" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -9646,10 +9870,10 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -9726,7 +9950,10 @@
       <c r="AL75" t="n">
         <v>0</v>
       </c>
-      <c r="AM75" t="inlineStr">
+      <c r="AM75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN75" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -9739,11 +9966,11 @@
         </is>
       </c>
       <c r="B76" t="n">
+        <v>6</v>
+      </c>
+      <c r="C76" t="n">
         <v>8</v>
       </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
@@ -9754,13 +9981,13 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -9849,7 +10076,10 @@
       <c r="AL76" t="n">
         <v>0</v>
       </c>
-      <c r="AM76" t="inlineStr">
+      <c r="AM76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN76" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -9865,13 +10095,13 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
         <v>19</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -9892,22 +10122,22 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="n">
         <v>12</v>
       </c>
-      <c r="M77" t="n">
-        <v>2</v>
-      </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R77" t="n">
         <v>7</v>
@@ -9934,14 +10164,14 @@
         <v>1</v>
       </c>
       <c r="Z77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB77" t="n">
         <v>3</v>
       </c>
-      <c r="AA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>0</v>
-      </c>
       <c r="AC77" t="n">
         <v>0</v>
       </c>
@@ -9972,7 +10202,10 @@
       <c r="AL77" t="n">
         <v>0</v>
       </c>
-      <c r="AM77" t="inlineStr">
+      <c r="AM77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN77" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -9988,14 +10221,14 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
         <v>28</v>
       </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
@@ -10003,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -10015,22 +10248,22 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M78" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -10095,7 +10328,10 @@
       <c r="AL78" t="n">
         <v>0</v>
       </c>
-      <c r="AM78" t="inlineStr">
+      <c r="AM78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN78" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -10111,25 +10347,25 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>3</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
       </c>
       <c r="J79" t="n">
         <v>29</v>
@@ -10138,56 +10374,56 @@
         <v>28</v>
       </c>
       <c r="L79" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="O79" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R79" t="n">
         <v>18</v>
       </c>
       <c r="S79" t="n">
+        <v>83</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
         <v>28</v>
       </c>
-      <c r="T79" t="n">
-        <v>83</v>
-      </c>
-      <c r="U79" t="n">
-        <v>18</v>
-      </c>
       <c r="V79" t="n">
         <v>1</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X79" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="Y79" t="n">
         <v>0</v>
       </c>
       <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB79" t="n">
         <v>2</v>
       </c>
-      <c r="AA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>0</v>
-      </c>
       <c r="AC79" t="n">
         <v>0</v>
       </c>
@@ -10218,7 +10454,10 @@
       <c r="AL79" t="n">
         <v>0</v>
       </c>
-      <c r="AM79" t="inlineStr">
+      <c r="AM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN79" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -10267,34 +10506,34 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
         <v>2</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0</v>
-      </c>
-      <c r="R80" t="n">
-        <v>0</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0</v>
       </c>
       <c r="T80" t="n">
         <v>2</v>
       </c>
       <c r="U80" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V80" t="n">
         <v>0</v>
       </c>
       <c r="W80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X80" t="n">
         <v>0</v>
@@ -10341,7 +10580,10 @@
       <c r="AL80" t="n">
         <v>0</v>
       </c>
-      <c r="AM80" t="inlineStr">
+      <c r="AM80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN80" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -10387,13 +10629,13 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
@@ -10405,7 +10647,7 @@
         <v>12</v>
       </c>
       <c r="S81" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="T81" t="n">
         <v>21</v>
@@ -10417,10 +10659,10 @@
         <v>1</v>
       </c>
       <c r="W81" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="X81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y81" t="n">
         <v>0</v>
@@ -10464,7 +10706,10 @@
       <c r="AL81" t="n">
         <v>0</v>
       </c>
-      <c r="AM81" t="inlineStr">
+      <c r="AM81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN81" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -10477,28 +10722,28 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
         <v>11</v>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -10507,16 +10752,16 @@
         <v>8</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -10587,7 +10832,10 @@
       <c r="AL82" t="n">
         <v>0</v>
       </c>
-      <c r="AM82" t="inlineStr">
+      <c r="AM82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN82" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -10603,26 +10851,26 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
         <v>9</v>
       </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>4</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
@@ -10633,20 +10881,20 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
       </c>
       <c r="O83" t="n">
+        <v>3</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
         <v>2</v>
       </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>5</v>
-      </c>
       <c r="R83" t="n">
         <v>0</v>
       </c>
@@ -10710,7 +10958,10 @@
       <c r="AL83" t="n">
         <v>0</v>
       </c>
-      <c r="AM83" t="inlineStr">
+      <c r="AM83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN83" t="inlineStr">
         <is>
           <t>food</t>
         </is>
